--- a/data/trans_orig/P36BPD06_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD06_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>129624</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>110033</v>
+        <v>107979</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>150722</v>
+        <v>149266</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.188822832447336</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.160283730761521</v>
+        <v>0.1572930649450349</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2195553273510789</v>
+        <v>0.2174347527595764</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>206</v>
@@ -762,19 +762,19 @@
         <v>135625</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>119520</v>
+        <v>119491</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>154524</v>
+        <v>154246</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1850969745702902</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1631179401965924</v>
+        <v>0.1630788239830762</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2108899887689132</v>
+        <v>0.2105114057464126</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>332</v>
@@ -783,19 +783,19 @@
         <v>265249</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>239533</v>
+        <v>239035</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>295670</v>
+        <v>290795</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1868992115247712</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1687792376692742</v>
+        <v>0.1684281551782411</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2083342591626373</v>
+        <v>0.2048996157307412</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>556862</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>535764</v>
+        <v>537220</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>576453</v>
+        <v>578507</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8111771675526642</v>
+        <v>0.811177167552664</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.780444672648921</v>
+        <v>0.7825652472404235</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8397162692384791</v>
+        <v>0.8427069350549652</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1032</v>
@@ -833,19 +833,19 @@
         <v>597097</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>578198</v>
+        <v>578476</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>613202</v>
+        <v>613231</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8149030254297097</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7891100112310867</v>
+        <v>0.7894885942535874</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8368820598034076</v>
+        <v>0.8369211760169236</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1632</v>
@@ -854,19 +854,19 @@
         <v>1153959</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1123538</v>
+        <v>1128413</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1179675</v>
+        <v>1180173</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8131007884752286</v>
+        <v>0.8131007884752288</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7916657408373627</v>
+        <v>0.7951003842692587</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8312207623307258</v>
+        <v>0.8315718448217589</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>278836</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>246674</v>
+        <v>248174</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>309983</v>
+        <v>313349</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2669187121845328</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2361308765768268</v>
+        <v>0.2375664280916399</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2967342028734737</v>
+        <v>0.2999566228117104</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>379</v>
@@ -979,19 +979,19 @@
         <v>275513</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>252298</v>
+        <v>248600</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>301864</v>
+        <v>300273</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2580316819441066</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2362905017838822</v>
+        <v>0.2328262856245915</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2827107847539425</v>
+        <v>0.2812212087107406</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>626</v>
@@ -1000,19 +1000,19 @@
         <v>554349</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>516218</v>
+        <v>516463</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>592829</v>
+        <v>594149</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2624266100533398</v>
+        <v>0.2624266100533397</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2443755628769744</v>
+        <v>0.2444913532225785</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2806430892363723</v>
+        <v>0.2812680121929196</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>765813</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>734666</v>
+        <v>731300</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>797975</v>
+        <v>796475</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7330812878154672</v>
+        <v>0.7330812878154671</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7032657971265266</v>
+        <v>0.7000433771882897</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7638691234231735</v>
+        <v>0.7624335719083606</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1132</v>
@@ -1050,19 +1050,19 @@
         <v>792234</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>765883</v>
+        <v>767474</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>815449</v>
+        <v>819147</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7419683180558935</v>
+        <v>0.7419683180558936</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7172892152460579</v>
+        <v>0.7187787912892594</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7637094982161182</v>
+        <v>0.7671737143754085</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1844</v>
@@ -1071,19 +1071,19 @@
         <v>1558047</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1519567</v>
+        <v>1518247</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1596178</v>
+        <v>1595933</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7375733899466604</v>
+        <v>0.7375733899466603</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7193569107636276</v>
+        <v>0.7187319878070804</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7556244371230256</v>
+        <v>0.7555086467774218</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>168143</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>145566</v>
+        <v>143639</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>196147</v>
+        <v>195227</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2097104081299213</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1815514182000403</v>
+        <v>0.179149017233298</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2446375403483478</v>
+        <v>0.2434902141152133</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>211</v>
@@ -1196,19 +1196,19 @@
         <v>173825</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>153031</v>
+        <v>153639</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>197832</v>
+        <v>196191</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2140022155914983</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1884020207760363</v>
+        <v>0.1891503117100592</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2435580182625867</v>
+        <v>0.2415370466744887</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>357</v>
@@ -1217,19 +1217,19 @@
         <v>341968</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>309259</v>
+        <v>309105</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>379666</v>
+        <v>377298</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2118702346932918</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1916049120472472</v>
+        <v>0.1915093690967949</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2352265751460611</v>
+        <v>0.2337592205923816</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>633644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>605640</v>
+        <v>606560</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>656221</v>
+        <v>658148</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7902895918700787</v>
+        <v>0.7902895918700789</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7553624596516522</v>
+        <v>0.7565097858847866</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8184485817999596</v>
+        <v>0.820850982766702</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>836</v>
@@ -1267,19 +1267,19 @@
         <v>638434</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>614427</v>
+        <v>616068</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>659228</v>
+        <v>658620</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7859977844085018</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7564419817374134</v>
+        <v>0.7584629533255115</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8115979792239636</v>
+        <v>0.8108496882899409</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1365</v>
@@ -1288,19 +1288,19 @@
         <v>1272077</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1234379</v>
+        <v>1236747</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1304786</v>
+        <v>1304940</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7881297653067081</v>
+        <v>0.7881297653067082</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.764773424853939</v>
+        <v>0.7662407794076185</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8083950879527524</v>
+        <v>0.8084906309032051</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>268589</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>239048</v>
+        <v>238678</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>298832</v>
+        <v>301978</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2729846190526504</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2429603790171488</v>
+        <v>0.2425847419670177</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3037230472425534</v>
+        <v>0.3069201445136629</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>418</v>
@@ -1413,19 +1413,19 @@
         <v>324519</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>297197</v>
+        <v>297648</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>350113</v>
+        <v>353561</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2907387993735374</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2662608271809078</v>
+        <v>0.266664401902453</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3136686458746319</v>
+        <v>0.3167577139070953</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>687</v>
@@ -1434,19 +1434,19 @@
         <v>593108</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>553292</v>
+        <v>547978</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>638079</v>
+        <v>634395</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2824209048797516</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2634617453220333</v>
+        <v>0.2609312211950779</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3038349568586353</v>
+        <v>0.3020804526931251</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>715308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>685065</v>
+        <v>681919</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>744849</v>
+        <v>745219</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7270153809473496</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6962769527574466</v>
+        <v>0.6930798554863371</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.757039620982851</v>
+        <v>0.7574152580329825</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1139</v>
@@ -1484,19 +1484,19 @@
         <v>791669</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>766075</v>
+        <v>762627</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>818991</v>
+        <v>818540</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7092612006264626</v>
+        <v>0.7092612006264625</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6863313541253681</v>
+        <v>0.6832422860929046</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7337391728190922</v>
+        <v>0.7333355980975471</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1870</v>
@@ -1505,19 +1505,19 @@
         <v>1506977</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1462006</v>
+        <v>1465690</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1546793</v>
+        <v>1552107</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7175790951202485</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6961650431413647</v>
+        <v>0.6979195473068747</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7365382546779667</v>
+        <v>0.7390687788049223</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>845192</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>791137</v>
+        <v>794244</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>900577</v>
+        <v>904423</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2403286742772528</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2249582832017638</v>
+        <v>0.2258416467549911</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2560772528150941</v>
+        <v>0.2571708898820211</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1214</v>
@@ -1630,19 +1630,19 @@
         <v>909481</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>864091</v>
+        <v>861340</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>958980</v>
+        <v>957761</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2438997214752833</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.231727191855568</v>
+        <v>0.2309893842521634</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2571740754709081</v>
+        <v>0.2568470258195271</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2002</v>
@@ -1651,19 +1651,19 @@
         <v>1754674</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1683045</v>
+        <v>1676117</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1827717</v>
+        <v>1820080</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2421664636400184</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2322807748404576</v>
+        <v>0.2313246943039069</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2522472981705892</v>
+        <v>0.2511933908100955</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2671626</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2616241</v>
+        <v>2612395</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2725681</v>
+        <v>2722574</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7596713257227471</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7439227471849051</v>
+        <v>0.7428291101179788</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7750417167982361</v>
+        <v>0.7741583532450087</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4139</v>
@@ -1701,19 +1701,19 @@
         <v>2819434</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2769935</v>
+        <v>2771154</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2864824</v>
+        <v>2867575</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7561002785247167</v>
+        <v>0.7561002785247166</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.742825924529092</v>
+        <v>0.743152974180473</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7682728081444322</v>
+        <v>0.7690106157478367</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6711</v>
@@ -1722,19 +1722,19 @@
         <v>5491060</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5418017</v>
+        <v>5425654</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5562689</v>
+        <v>5569617</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7578335363599815</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7477527018294109</v>
+        <v>0.7488066091899045</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7677192251595427</v>
+        <v>0.768675305696093</v>
       </c>
     </row>
     <row r="18">
